--- a/classfiers/mega/welm/nearmiss/WELM_lin_nearmiss_results.xlsx
+++ b/classfiers/mega/welm/nearmiss/WELM_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8854166666666666</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="D2" t="n">
-        <v>0.888888888888889</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9726443768996961</v>
+        <v>0.9751585623678647</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7912087912087912</v>
+        <v>0.8941176470588236</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9516415261756876</v>
+        <v>0.9703703703703704</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9052631578947369</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9052631578947369</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="E4" t="n">
-        <v>0.984472049689441</v>
+        <v>0.926829268292683</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8631578947368421</v>
+        <v>0.9425287356321839</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8395061728395061</v>
+        <v>0.9425287356321839</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9554367201426025</v>
+        <v>0.9767195767195768</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8842105263157894</v>
+        <v>0.8255813953488372</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.8192771084337349</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9755555555555555</v>
+        <v>0.9648268398268398</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8676096491228071</v>
+        <v>0.8777599572306869</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8461692344922159</v>
+        <v>0.8810898235569621</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8631912239485627</v>
+        <v>0.8777458065871453</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9679500456925967</v>
+        <v>0.9627809235154668</v>
       </c>
     </row>
   </sheetData>
